--- a/xlsx/圣塔克拉拉大学_intext.xlsx
+++ b/xlsx/圣塔克拉拉大学_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="292">
   <si>
     <t>圣塔克拉拉大学</t>
   </si>
@@ -35,13 +35,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%81%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>私立大學</t>
+    <t>私立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A0%94%E7%A9%B6%E5%9E%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>研究型大學</t>
+    <t>研究型大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E9%87%91</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%A1%E9%95%B7</t>
   </si>
   <si>
-    <t>校長</t>
+    <t>校长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E7%A7%91%E7%94%9F</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%A1%94%E5%85%8B%E6%8B%89%E6%8B%89</t>
   </si>
   <si>
-    <t>聖塔克拉拉</t>
+    <t>圣塔克拉拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NCAA</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E7%A9%8C%E6%9C%83</t>
   </si>
   <si>
-    <t>耶穌會</t>
+    <t>耶稣会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Association_of_Jesuit_Colleges_and_Universities</t>
@@ -119,15 +119,9 @@
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E7%A8%A3%E4%BC%9A</t>
   </si>
   <si>
-    <t>耶稣会</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%81%E7%AB%8B%E5%A4%A7%E5%AD%A6</t>
   </si>
   <si>
-    <t>私立大学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E5%A4%A7%E5%AD%A6</t>
   </si>
   <si>
@@ -143,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%8E%92%E5%90%8D</t>
   </si>
   <si>
-    <t>大學排名</t>
+    <t>大学排名</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%B8%83%E6%96%AF</t>
@@ -161,67 +155,67 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E6%9C%88%E5%88%8A</t>
   </si>
   <si>
-    <t>華盛頓月刊</t>
+    <t>华盛顿月刊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E%E7%9A%84%E5%AD%B8%E9%99%A2%E5%92%8C%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>Template talk-加利福尼亞州的學院和大學</t>
+    <t>Template talk-加利福尼亚州的学院和大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E8%90%8A%E6%81%A9%E5%9C%8B%E9%9A%9B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>亞萊恩國際大學</t>
+    <t>亚莱恩国际大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%8C%B6%E5%A4%AA%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>美國猶太大學</t>
+    <t>美国犹太大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E6%A0%BC%E8%A5%BF%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>阿爾格西大學</t>
+    <t>阿尔格西大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%98%87%E8%96%A9%E5%A4%AA%E5%B9%B3%E6%B4%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>阿蘇薩太平洋大學</t>
+    <t>阿苏萨太平洋大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%9C%E6%AD%90%E6%8B%89%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>拜歐拉大學</t>
+    <t>拜欧拉大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E6%B5%B8%E6%9C%83%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>加利福尼亞浸會大學</t>
+    <t>加利福尼亚浸会大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E6%B5%B7%E5%B2%B8%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>加利福尼亞海岸大學</t>
+    <t>加利福尼亚海岸大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E6%95%B4%E5%90%88%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>加利福尼亞整合學院</t>
+    <t>加利福尼亚整合学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E7%90%86%E5%B7%A5%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>加州理工學院</t>
+    <t>加州理工学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E7%A7%91%E6%8A%80%E5%A4%A7%E5%AD%A6</t>
@@ -233,109 +227,109 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E8%B7%AF%E5%BE%B7%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>加利福尼亞路德大學</t>
+    <t>加利福尼亚路德大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%AF%86%E6%8B%89%E7%91%AA%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>加州密拉瑪大學</t>
+    <t>加州密拉玛大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E6%99%AE%E6%9B%BC%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>查普曼大學</t>
+    <t>查普曼大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%A0%BC%E5%A8%81%E7%88%BE%E5%B7%A5%E8%97%9D%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>科格威爾工藝學院</t>
+    <t>科格威尔工艺学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%94%E5%92%8C%E5%A4%A7%E5%AD%B8%E7%88%BE%E7%81%A3%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>協和大學爾灣分校</t>
+    <t>协和大学尔湾分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%A4%9A%E6%98%8E%E5%B0%BC%E5%85%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>加利福尼亞多明尼克大學</t>
+    <t>加利福尼亚多明尼克大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E9%9B%B7%E6%96%AF%E8%AB%BE%E5%A4%AA%E5%B9%B3%E6%B4%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>弗雷斯諾太平洋大學</t>
+    <t>弗雷斯诺太平洋大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E9%96%80%E5%A4%A7%E5%AD%B8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>金門大學 (美國)</t>
+    <t>金门大学 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E9%97%9C%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>核關大學</t>
+    <t>核关大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%90%8D%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>聖名大學</t>
+    <t>圣名大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E6%9C%9B%E5%9C%8B%E9%9A%9B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>希望國際大學</t>
+    <t>希望国际大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%BC%97%E8%90%8A%E6%96%AF%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>漢弗萊斯學院</t>
+    <t>汉弗莱斯学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%E8%82%AF%E5%B0%BC%E8%BF%AA%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>約翰肯尼迪大學</t>
+    <t>约翰肯尼迪大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%8B%A5%E6%9C%9B%E4%BF%9D%E7%A5%BF%E5%A4%A9%E4%B8%BB%E6%95%99%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>大若望保祿天主教大學</t>
+    <t>大若望保禄天主教大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%A5%BF%E7%91%9E%E4%BA%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>拉西瑞亞大學</t>
+    <t>拉西瑞亚大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E5%91%BD%E5%A4%AA%E5%B9%B3%E6%B4%8B%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>生命太平洋學院</t>
+    <t>生命太平洋学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E8%82%AF%E5%A4%A7%E5%AD%B8_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>林肯大學 (加利福尼亞州)</t>
+    <t>林肯大学 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E6%9E%97%E9%81%94%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>羅馬林達大學</t>
+    <t>罗马林达大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E7%BA%A6%E6%8B%89%E9%A9%AC%E5%88%A9%E8%92%99%E7%89%B9%E5%A4%A7%E5%AD%A6</t>
@@ -347,13 +341,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E9%9A%86%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>曼隆學院</t>
+    <t>曼隆学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E7%88%BE%E6%96%AF%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>密爾斯學院</t>
+    <t>密尔斯学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%BE%B7%E5%A4%A7%E5%AD%A6%E8%92%99%E7%89%B9%E9%9B%B7%E5%9B%BD%E9%99%85%E7%A0%94%E7%A9%B6%E5%AD%A6%E9%99%A2</t>
@@ -365,139 +359,139 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%91%AA%E9%BA%97%E5%B1%B1%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>聖瑪麗山大學</t>
+    <t>圣玛丽山大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E8%A5%BF%E7%8F%AD%E7%89%99%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>國家西班牙大學</t>
+    <t>国家西班牙大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%A4%A7%E5%AD%B8_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>國立大學 (加利福尼亞州)</t>
+    <t>国立大学 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%8C%97%E7%90%86%E5%B7%A5%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>西北理工大學</t>
+    <t>西北理工大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%A3%E6%85%95%E7%88%BE%E8%81%96%E6%AF%8D%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>那慕爾聖母大學</t>
+    <t>那慕尔圣母大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%96%B9%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>西方學院</t>
+    <t>西方学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E6%A9%A1%E6%A8%B9%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>太平洋橡樹學院</t>
+    <t>太平洋橡树学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E8%81%AF%E5%90%88%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>太平洋聯合學院</t>
+    <t>太平洋联合学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%A9%E7%8F%80%E4%BB%A3%E5%9B%A0%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>佩珀代因大學</t>
+    <t>佩珀代因大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%9B%A0%E7%89%B9%E6%B4%9B%E9%A6%AC%E6%8B%BF%E6%92%92%E5%8B%92%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>波因特洛馬拿撒勒大學</t>
+    <t>波因特洛马拿撒勒大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E8%81%96%E7%91%AA%E9%BA%97%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>加利福尼亞聖瑪麗學院</t>
+    <t>加利福尼亚圣玛丽学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%B9%86%E7%88%BE%E6%A2%85%E9%87%8C%E7%89%B9%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>塞繆爾梅里特大學</t>
+    <t>塞缪尔梅里特大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8F%AF%E9%87%91%E8%B0%B7%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>聖華金谷學院</t>
+    <t>圣华金谷学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%BD%E8%B0%B7%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>矽谷大學</t>
+    <t>矽谷大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%9B%E6%99%AE%E6%A3%AE%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>辛普森大學</t>
+    <t>辛普森大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%89%B5%E5%83%B9%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>美國創價大學</t>
+    <t>美国创价大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%9D%A6%E7%A6%8F%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>斯坦福大學</t>
+    <t>斯坦福大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E9%A6%AC%E6%96%AF%E9%98%BF%E5%A5%8E%E9%82%A3%E6%96%AF%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>托馬斯阿奎那斯學院</t>
+    <t>托马斯阿奎那斯学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E4%B8%80%E5%9C%8B%E9%9A%9B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>三一國際大學</t>
+    <t>三一国际大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E6%9D%9C%E9%AD%AF%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>加利福尼亞杜魯大學</t>
+    <t>加利福尼亚杜鲁大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%96%87%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>拉文大學</t>
+    <t>拉文大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E5%BE%B7%E8%98%AD%E8%8C%B2%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>雷德蘭茲大學</t>
+    <t>雷德兰兹大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%9C%B0%E7%89%99%E5%93%A5%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>聖地牙哥大學</t>
+    <t>圣地牙哥大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A7%E9%87%91%E5%B1%B1%E5%A4%A7%E5%AD%A6</t>
@@ -515,61 +509,61 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E4%BE%86%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>西來大學</t>
+    <t>西来大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%85%88%E9%8B%92%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>南加利福尼亞先鋒大學</t>
+    <t>南加利福尼亚先锋大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E6%96%AF%E8%92%99%E7%89%B9%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>維斯蒙特學院</t>
+    <t>维斯蒙特学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%83%A0%E8%92%82%E7%88%BE%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>惠蒂爾學院</t>
+    <t>惠蒂尔学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%E5%82%91%E7%91%9F%E6%99%AE%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>威廉傑瑟普大學</t>
+    <t>威廉杰瑟普大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8D%E5%BE%B7%E4%BC%AF%E9%87%8C%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>伍德伯里大學</t>
+    <t>伍德伯里大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>加利福尼亞大學</t>
+    <t>加利福尼亚大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%B8%E6%9F%8F%E5%85%8B%E8%90%8A%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州大學柏克萊分校</t>
+    <t>加州大学柏克莱分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%A4%A7%E5%AD%B8%E6%88%B4%E7%B6%AD%E6%96%AF%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加利福尼亞大學戴維斯分校</t>
+    <t>加利福尼亚大学戴维斯分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%B8%E7%88%BE%E7%81%A3%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州大學爾灣分校</t>
+    <t>加州大学尔湾分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%A6%E6%B4%9B%E6%9D%89%E7%9F%B6%E5%88%86%E6%A0%A1</t>
@@ -581,19 +575,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E7%86%B9%E5%BE%B7%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>美熹德加利福尼亞大學</t>
+    <t>美熹德加利福尼亚大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%B8%E6%B2%B3%E6%BF%B1%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州大學河濱分校</t>
+    <t>加州大学河滨分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%9C%B0%E7%89%99%E5%93%A5%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>聖地牙哥加利福尼亞大學</t>
+    <t>圣地牙哥加利福尼亚大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%A4%A7%E5%AD%A6%E6%97%A7%E9%87%91%E5%B1%B1%E5%88%86%E6%A0%A1</t>
@@ -605,79 +599,79 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%A4%A7%E5%AD%B8%E8%81%96%E5%A1%94%E8%8A%AD%E8%8A%AD%E6%8B%89%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加利福尼亞大學聖塔芭芭拉分校</t>
+    <t>加利福尼亚大学圣塔芭芭拉分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%A1%94%E5%85%8B%E9%AD%AF%E8%8C%B2%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>聖塔克魯茲加利福尼亞大學</t>
+    <t>圣塔克鲁兹加利福尼亚大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>加利福尼亞州立大學</t>
+    <t>加利福尼亚州立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E6%B5%B7%E4%BA%8B%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>加利福尼亞海事學院</t>
+    <t>加利福尼亚海事学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E7%90%86%E5%B7%A5%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>加州理工州立大學</t>
+    <t>加州理工州立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%8E%AB%E7%B4%8D%E5%8A%A0%E5%B7%9E%E5%B7%9E%E7%AB%8B%E7%90%86%E5%B7%A5%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>波莫納加州州立理工大學</t>
+    <t>波莫纳加州州立理工大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8%E8%B2%9D%E5%85%8B%E6%96%AF%E8%8F%B2%E7%88%BE%E5%BE%B7%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州州立大學貝克斯菲爾德分校</t>
+    <t>加州州立大学贝克斯菲尔德分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8%E6%B5%B7%E5%B3%BD%E7%BE%A4%E5%B3%B6%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州州立大學海峽群島分校</t>
+    <t>加州州立大学海峡群岛分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8%E5%A5%87%E7%A7%91%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州州立大學奇科分校</t>
+    <t>加州州立大学奇科分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8%E5%A4%9A%E6%98%8E%E6%A0%BC%E6%96%AF%E5%B1%B1%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州州立大學多明格斯山分校</t>
+    <t>加州州立大学多明格斯山分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8%E6%9D%B1%E7%81%A3%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州州立大學東灣分校</t>
+    <t>加州州立大学东湾分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8%E5%BC%97%E9%9B%B7%E6%96%AF%E8%AB%BE%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州州立大學弗雷斯諾分校</t>
+    <t>加州州立大学弗雷斯诺分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8%E5%AF%8C%E5%8B%92%E9%A0%93%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州州立大學富勒頓分校</t>
+    <t>加州州立大学富勒顿分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%A6%E9%95%BF%E6%BB%A9%E5%88%86%E6%A0%A1</t>
@@ -689,55 +683,55 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8%E8%92%99%E7%89%B9%E5%88%A9%E7%81%A3%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州州立大學蒙特利灣分校</t>
+    <t>加州州立大学蒙特利湾分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8%E5%8C%97%E5%B6%BA%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州州立大學北嶺分校</t>
+    <t>加州州立大学北岭分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8%E8%96%A9%E5%85%8B%E6%8B%89%E9%96%80%E6%89%98%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州州立大學薩克拉門托分校</t>
+    <t>加州州立大学萨克拉门托分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8%E8%81%96%E8%B2%9D%E7%B4%8D%E8%BF%AA%E8%AB%BE%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州州立大學聖貝納迪諾分校</t>
+    <t>加州州立大学圣贝纳迪诺分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8%E8%81%96%E9%A6%AC%E7%A7%91%E6%96%AF%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州州立大學聖馬科斯分校</t>
+    <t>加州州立大学圣马科斯分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8%E6%96%AF%E5%9D%A6%E5%B0%BC%E6%96%AF%E6%B4%9B%E6%96%AF%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州州立大學斯坦尼斯洛斯分校</t>
+    <t>加州州立大学斯坦尼斯洛斯分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%AA%E5%A0%A1%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>洪堡州立大學</t>
+    <t>洪堡州立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8D%B7%E8%A5%BF%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>聖荷西州立大學</t>
+    <t>圣荷西州立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E8%AB%BE%E9%A6%AC%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>索諾馬州立大學</t>
+    <t>索诺马州立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E7%A8%A3%E4%BC%9A%E5%AD%A6%E9%99%A2%E5%92%8C%E5%A4%A7%E5%AD%A6%E8%81%94%E5%90%88%E4%BC%9A</t>
@@ -755,7 +749,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%8D%81%E5%AD%97%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>聖十字學院</t>
+    <t>圣十字学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%B9%E5%B0%94%E8%8F%B2%E5%B0%94%E5%BE%B7%E5%A4%A7%E5%AD%A6</t>
@@ -767,13 +761,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E5%B0%BC%E4%BC%91%E6%96%AF%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>凱尼休斯學院</t>
+    <t>凯尼休斯学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E8%8E%AB%E6%81%A9%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>萊莫恩學院</t>
+    <t>莱莫恩学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%9D%A6%E8%8E%AB%E5%A4%A7%E5%AD%A6</t>
@@ -785,25 +779,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%BD%BC%E5%BE%97%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>聖彼得大學</t>
+    <t>圣彼得大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%B4%84%E7%91%9F%E5%A4%AB%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>聖約瑟夫大學</t>
+    <t>圣约瑟夫大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%85%8B%E8%98%AD%E9%A0%93%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>斯克蘭頓大學</t>
+    <t>斯克兰顿大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%87%8C%E8%98%AD%E6%B4%9B%E7%B4%84%E6%8B%89%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>馬里蘭洛約拉大學</t>
+    <t>马里兰洛约拉大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%E5%9F%8E%E5%A4%A7%E5%AD%A6</t>
@@ -815,37 +809,37 @@
     <t>https://zh.wikipedia.org/wiki/%E6%83%A0%E9%9D%88%E8%80%B6%E7%A9%8C%E6%9C%83%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>惠靈耶穌會大學</t>
+    <t>惠灵耶稣会大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%91%9E%E9%A0%93%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>克瑞頓大學</t>
+    <t>克瑞顿大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%95%E7%89%B9%E5%BE%8B%E6%A2%85%E8%A5%BF%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>底特律梅西大學</t>
+    <t>底特律梅西大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%E5%8D%A1%E7%BE%85%E7%88%BE%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>約翰卡羅爾大學</t>
+    <t>约翰卡罗尔大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%A4%E7%B6%AD%E7%88%BE%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>澤維爾大學</t>
+    <t>泽维尔大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E6%B4%9B%E7%B4%84%E6%8B%89%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>芝加哥洛約拉大學</t>
+    <t>芝加哥洛约拉大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%87%AF%E7%89%B9%E5%A4%A7%E5%AD%A6</t>
@@ -857,7 +851,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%85%8B%E8%B5%AB%E6%96%AF%E7%89%B9%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>羅克赫斯特大學</t>
+    <t>罗克赫斯特大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%B7%AF%E6%98%93%E6%96%AF%E5%A4%A7%E5%AD%A6</t>
@@ -869,19 +863,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%A5%A7%E7%88%BE%E8%89%AF%E6%B4%9B%E7%B4%84%E6%8B%89%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>新奧爾良洛約拉大學</t>
+    <t>新奥尔良洛约拉大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%A5%E5%B1%B1%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>春山學院</t>
+    <t>春山学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A2%E6%89%8E%E5%8A%A0%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>貢扎加大學</t>
+    <t>贡扎加大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%9B%85%E5%9B%BE%E5%A4%A7%E5%AD%A6</t>
@@ -1731,7 +1725,7 @@
         <v>33</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G17" t="n">
         <v>2</v>
@@ -1757,10 +1751,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1786,10 +1780,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G19" t="n">
         <v>4</v>
@@ -1815,10 +1809,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1844,10 +1838,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1873,10 +1867,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1902,10 +1896,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1931,10 +1925,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1960,10 +1954,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1989,10 +1983,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G26" t="n">
         <v>4</v>
@@ -2018,10 +2012,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -2047,10 +2041,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F28" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -2076,10 +2070,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -2105,10 +2099,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -2134,10 +2128,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -2163,10 +2157,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F32" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -2192,10 +2186,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F33" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -2221,10 +2215,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F34" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2250,10 +2244,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F35" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2279,10 +2273,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F36" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2308,10 +2302,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F37" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2337,10 +2331,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F38" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2366,10 +2360,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F39" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2395,10 +2389,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F40" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2424,10 +2418,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F41" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2453,10 +2447,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F42" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2482,10 +2476,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F43" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2511,10 +2505,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F44" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2540,10 +2534,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F45" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2569,10 +2563,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F46" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2598,10 +2592,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F47" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2627,10 +2621,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F48" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2656,10 +2650,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F49" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2685,10 +2679,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F50" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2714,10 +2708,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F51" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2743,10 +2737,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F52" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2772,10 +2766,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F53" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2801,10 +2795,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F54" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2830,10 +2824,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F55" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2859,10 +2853,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F56" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2888,10 +2882,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F57" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2917,10 +2911,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F58" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2946,10 +2940,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F59" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2975,10 +2969,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F60" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3004,10 +2998,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F61" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3033,10 +3027,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F62" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3062,10 +3056,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F63" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3091,10 +3085,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F64" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3120,10 +3114,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F65" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3149,10 +3143,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F66" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3178,10 +3172,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F67" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3207,10 +3201,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3236,10 +3230,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F69" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3265,10 +3259,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F70" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3294,10 +3288,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F71" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3323,10 +3317,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F72" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3352,10 +3346,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F73" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3381,10 +3375,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F74" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3410,10 +3404,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F75" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3439,10 +3433,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F76" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3468,10 +3462,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F77" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3497,10 +3491,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F78" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3526,10 +3520,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F79" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3555,10 +3549,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F80" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3584,10 +3578,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F81" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3613,10 +3607,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F82" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3642,10 +3636,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F83" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3671,10 +3665,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F84" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3700,10 +3694,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F85" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3729,10 +3723,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F86" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3758,10 +3752,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F87" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3787,10 +3781,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F88" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3816,10 +3810,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F89" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3845,10 +3839,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F90" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G90" t="n">
         <v>3</v>
@@ -3874,10 +3868,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F91" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3903,10 +3897,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F92" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3932,10 +3926,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F93" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G93" t="n">
         <v>2</v>
@@ -3961,10 +3955,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F94" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G94" t="n">
         <v>3</v>
@@ -3990,10 +3984,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F95" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4019,10 +4013,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F96" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4048,10 +4042,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F97" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G97" t="n">
         <v>3</v>
@@ -4077,10 +4071,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F98" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G98" t="n">
         <v>3</v>
@@ -4106,10 +4100,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F99" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4135,10 +4129,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F100" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4164,10 +4158,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F101" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4193,10 +4187,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F102" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4222,10 +4216,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F103" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4251,10 +4245,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F104" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4280,10 +4274,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F105" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4309,10 +4303,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F106" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4338,10 +4332,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F107" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4367,10 +4361,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F108" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4396,10 +4390,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F109" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4425,10 +4419,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F110" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G110" t="n">
         <v>2</v>
@@ -4454,10 +4448,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F111" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4483,10 +4477,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F112" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4512,10 +4506,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F113" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4541,10 +4535,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F114" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4570,10 +4564,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F115" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4599,10 +4593,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F116" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4628,10 +4622,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F117" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4657,10 +4651,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F118" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4686,10 +4680,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F119" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4715,10 +4709,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F120" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4744,10 +4738,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F121" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4773,10 +4767,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F122" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4802,10 +4796,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F123" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G123" t="n">
         <v>2</v>
@@ -4831,10 +4825,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F124" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -4860,10 +4854,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F125" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -4889,10 +4883,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F126" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -4918,10 +4912,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F127" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -4947,10 +4941,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F128" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -4976,10 +4970,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F129" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5005,10 +4999,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F130" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5034,10 +5028,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F131" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5063,10 +5057,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F132" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5092,10 +5086,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F133" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5121,10 +5115,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F134" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5150,10 +5144,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F135" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5179,10 +5173,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F136" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5208,10 +5202,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F137" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5237,10 +5231,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F138" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5266,10 +5260,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F139" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5295,10 +5289,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F140" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5324,10 +5318,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F141" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5353,10 +5347,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F142" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5382,10 +5376,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F143" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5411,10 +5405,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F144" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5440,10 +5434,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F145" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5469,10 +5463,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F146" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5498,10 +5492,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F147" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5527,10 +5521,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F148" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G148" t="n">
         <v>2</v>
@@ -5556,10 +5550,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>289</v>
+      </c>
+      <c r="F149" t="s">
         <v>291</v>
-      </c>
-      <c r="F149" t="s">
-        <v>293</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
